--- a/soberano/test_cases/warehouse_record_test_cases.xlsx
+++ b/soberano/test_cases/warehouse_record_test_cases.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">User7 is allowed to record warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">procurement</t>
+    <t xml:space="preserve">warehouse5</t>
   </si>
   <si>
     <t xml:space="preserve">w5</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">User10 is allowed to record warehouse</t>
   </si>
   <si>
-    <t xml:space="preserve">sales</t>
+    <t xml:space="preserve">warehouse7</t>
   </si>
   <si>
     <t xml:space="preserve">w7</t>
@@ -345,7 +345,7 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="19:19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
